--- a/biology/Médecine/Chondrocrâne/Chondrocrâne.xlsx
+++ b/biology/Médecine/Chondrocrâne/Chondrocrâne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chondrocr%C3%A2ne</t>
+          <t>Chondrocrâne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chondrocrâne (ou crâne cartilagineux) est la partie du neurocrâne qui se forme à partir d'une ossification endochondrale et constitue une partie de la base du crâne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chondrocr%C3%A2ne</t>
+          <t>Chondrocrâne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le chondrocrâne comprend :
 la partie pétreuse de l'os temporal,
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chondrocr%C3%A2ne</t>
+          <t>Chondrocrâne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,14 @@
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chondrocrâne commence à se développer à 28 jours de vie fœtale. Il se forme à partir de condensations mésenchymateuses et est complètement formé entre la 7e et la 9e semaine du développement fœtal.
 La majeure partie du chondrocrâne s'ossifie à l'âge adulte, mais il peut y rester des parties cartilagineuses.
 La partie du chondrocrâne associée à la notocorde qui se forme à partir du mésenchyme d'origine mésodermique est appelée chondrocrâne cordal.
-La partie la plus rostrale du chondrocrâne située en avant de la notocorde constitue le chondrocrâne préchordal et dérive principalement du mésenchyme dérivé de la crête neurale[1].
+La partie la plus rostrale du chondrocrâne située en avant de la notocorde constitue le chondrocrâne préchordal et dérive principalement du mésenchyme dérivé de la crête neurale.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chondrocr%C3%A2ne</t>
+          <t>Chondrocrâne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,10 +595,12 @@
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chondrocrâne selon les espèces peut varier considérablement, mais en général il est composé de cinq structures osseuses : les sphénoïdes, le mésethmoïde, les occipitaux, les capsules optiques et les capsules nasales[2].
-Chez les poissons cartilagineux (par exemple les requins et les raies ) et agnathes (par exemple les lamproies et les myxines ), le chondrocrâne persiste tout au long de la vie[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chondrocrâne selon les espèces peut varier considérablement, mais en général il est composé de cinq structures osseuses : les sphénoïdes, le mésethmoïde, les occipitaux, les capsules optiques et les capsules nasales.
+Chez les poissons cartilagineux (par exemple les requins et les raies ) et agnathes (par exemple les lamproies et les myxines ), le chondrocrâne persiste tout au long de la vie.
 </t>
         </is>
       </c>
